--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1167.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1167.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9656911790283328</v>
+        <v>1.166451692581177</v>
       </c>
       <c r="B1">
-        <v>1.300010056412223</v>
+        <v>2.429804086685181</v>
       </c>
       <c r="C1">
-        <v>2.188969518536223</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.371953010559082</v>
       </c>
       <c r="E1">
-        <v>1.997512995979821</v>
+        <v>1.235305190086365</v>
       </c>
     </row>
   </sheetData>
